--- a/tp2/results/time_averages.xlsx
+++ b/tp2/results/time_averages.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philb\Documents\School\session8\log8415E\log8415e\tp2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CFFFC4-679D-4B35-B449-D47EE5C3FD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A801C50-0C8B-4D14-B2C1-2ED067A5E381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8940" yWindow="2052" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw_data" sheetId="1" r:id="rId1"/>
+    <sheet name="averages" sheetId="8" r:id="rId2"/>
+    <sheet name="data1" sheetId="2" r:id="rId3"/>
+    <sheet name="data2" sheetId="3" r:id="rId4"/>
+    <sheet name="data3" sheetId="5" r:id="rId5"/>
+    <sheet name="data4" sheetId="6" r:id="rId6"/>
+    <sheet name="data5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Method</t>
   </si>
@@ -71,11 +77,32 @@
   <si>
     <t>Spark S3</t>
   </si>
+  <si>
+    <t>Average time per method (s)</t>
+  </si>
+  <si>
+    <t>Dataset 1</t>
+  </si>
+  <si>
+    <t>Dataset 2</t>
+  </si>
+  <si>
+    <t>Dataset 3</t>
+  </si>
+  <si>
+    <t>Dataset 4</t>
+  </si>
+  <si>
+    <t>Dataset 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -326,11 +353,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -341,6 +485,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,9 +498,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,6 +553,7440 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.10808000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7275-43A1-83AE-CE9466A34A96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadoop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.424720000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7275-43A1-83AE-CE9466A34A96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark HDFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.249680000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7275-43A1-83AE-CE9466A34A96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26.094240000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7275-43A1-83AE-CE9466A34A96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637250048"/>
+        <c:axId val="637253000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637250048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="637253000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637253000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Execution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637250048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.21800000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51B0-4531-A93A-9576955D9B0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadoop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.259799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51B0-4531-A93A-9576955D9B0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark HDFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.068200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-51B0-4531-A93A-9576955D9B0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26.163400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-51B0-4531-A93A-9576955D9B0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637250048"/>
+        <c:axId val="637253000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637250048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="637253000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637253000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Execution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637250048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.6599999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA58-4FA3-8037-9D0CD4BA7245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadoop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.7624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA58-4FA3-8037-9D0CD4BA7245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark HDFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.035400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA58-4FA3-8037-9D0CD4BA7245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26.396800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BA58-4FA3-8037-9D0CD4BA7245}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637250048"/>
+        <c:axId val="637253000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637250048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="637253000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637253000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Execution time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637250048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.3799999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00B0-41E9-BB4F-21C74AC797A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadoop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.129600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00B0-41E9-BB4F-21C74AC797A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark HDFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.298400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-00B0-41E9-BB4F-21C74AC797A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.964600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-00B0-41E9-BB4F-21C74AC797A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637250048"/>
+        <c:axId val="637253000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637250048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="637253000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637253000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Execution time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637250048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.16720000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6921-42DD-B9CD-A75BA45D7EBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadoop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.615400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6921-42DD-B9CD-A75BA45D7EBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark HDFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.2042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6921-42DD-B9CD-A75BA45D7EBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26.312800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6921-42DD-B9CD-A75BA45D7EBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637250048"/>
+        <c:axId val="637253000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637250048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="637253000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637253000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Execution time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637250048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A4F-432C-96DE-16954435307D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadoop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.356399999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A4F-432C-96DE-16954435307D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark HDFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.642199999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A4F-432C-96DE-16954435307D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>raw_data!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spark S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>raw_data!$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25.633600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1A4F-432C-96DE-16954435307D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637250048"/>
+        <c:axId val="637253000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637250048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="637253000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637253000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Execution time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.4115138592750532E-2"/>
+              <c:y val="0.21085252692927947"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637250048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721AE2DB-8067-4226-88A6-7DF4D5ADEE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D62A82-7B49-4D82-98DD-385A46171ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8D5637-C47E-4F4C-81A0-E66120592937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6366BB-7FA4-4FA4-BEB6-61E0FDABA7E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84814CFF-F10F-4098-AD31-2300091C855F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4CCF94-65A1-4171-8CB5-7C811BA58311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,10 +8252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,10 +8263,14 @@
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,36 +8295,88 @@
       <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>0.21199999999999999</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>0.21199999999999999</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>0.21199999999999999</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="11">
         <v>0.22700000000000001</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="12">
         <f>AVERAGE(D4:H4)</f>
         <v>0.21800000000000003</v>
       </c>
+      <c r="J4" s="17">
+        <f>AVERAGE(I4:I8)</f>
+        <v>0.10808000000000002</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.21800000000000003</v>
+      </c>
+      <c r="O4" s="11">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="P4" s="11">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0.16719999999999999</v>
+      </c>
+      <c r="R4" s="28">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="S4" s="32">
+        <f>AVERAGE(N4:R4)</f>
+        <v>0.10808000000000002</v>
+      </c>
+      <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
       <c r="C5" s="8">
         <v>2</v>
       </c>
@@ -724,9 +8399,33 @@
         <f t="shared" ref="I5:I8" si="0">AVERAGE(D5:H5)</f>
         <v>8.6599999999999996E-2</v>
       </c>
+      <c r="J5" s="18"/>
+      <c r="M5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="8">
+        <v>41.259799999999998</v>
+      </c>
+      <c r="O5" s="1">
+        <v>41.7624</v>
+      </c>
+      <c r="P5" s="1">
+        <v>41.129600000000003</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>41.615400000000001</v>
+      </c>
+      <c r="R5" s="29">
+        <v>41.356400000000001</v>
+      </c>
+      <c r="S5" s="33">
+        <f t="shared" ref="S5:S8" si="1">AVERAGE(N5:R5)</f>
+        <v>41.424720000000001</v>
+      </c>
+      <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
       <c r="C6" s="8">
         <v>3</v>
       </c>
@@ -749,9 +8448,33 @@
         <f t="shared" si="0"/>
         <v>4.3799999999999999E-2</v>
       </c>
+      <c r="J6" s="18"/>
+      <c r="M6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="8">
+        <v>25.068200000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25.035399999999999</v>
+      </c>
+      <c r="P6" s="1">
+        <v>25.298400000000001</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>25.2042</v>
+      </c>
+      <c r="R6" s="29">
+        <v>25.642199999999999</v>
+      </c>
+      <c r="S6" s="33">
+        <f t="shared" si="1"/>
+        <v>25.249680000000001</v>
+      </c>
+      <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+    <row r="7" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="15"/>
       <c r="C7" s="8">
         <v>4</v>
       </c>
@@ -774,9 +8497,33 @@
         <f t="shared" si="0"/>
         <v>0.16720000000000002</v>
       </c>
+      <c r="J7" s="18"/>
+      <c r="M7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="9">
+        <v>26.163399999999999</v>
+      </c>
+      <c r="O7" s="6">
+        <v>26.396799999999999</v>
+      </c>
+      <c r="P7" s="6">
+        <v>25.964600000000001</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>26.312799999999999</v>
+      </c>
+      <c r="R7" s="30">
+        <v>25.633600000000001</v>
+      </c>
+      <c r="S7" s="34">
+        <f t="shared" si="1"/>
+        <v>26.094240000000003</v>
+      </c>
+      <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="12"/>
+    <row r="8" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16"/>
       <c r="C8" s="9">
         <v>5</v>
       </c>
@@ -799,36 +8546,57 @@
         <f t="shared" si="0"/>
         <v>2.4799999999999999E-2</v>
       </c>
+      <c r="J8" s="19"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>40.691000000000003</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>41.228000000000002</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>41.816000000000003</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>40.826999999999998</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="11">
         <v>41.737000000000002</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="12">
         <f>AVERAGE(D9:H9)</f>
         <v>41.259799999999998</v>
       </c>
+      <c r="J9" s="17">
+        <f t="shared" ref="J9" si="2">AVERAGE(I9:I13)</f>
+        <v>41.424720000000001</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
       <c r="C10" s="8">
         <v>2</v>
       </c>
@@ -848,12 +8616,21 @@
         <v>42.162999999999997</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ref="I10:I13" si="1">AVERAGE(D10:H10)</f>
+        <f t="shared" ref="I10:I13" si="3">AVERAGE(D10:H10)</f>
         <v>41.7624</v>
       </c>
+      <c r="J10" s="18"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
       <c r="C11" s="8">
         <v>3</v>
       </c>
@@ -873,12 +8650,21 @@
         <v>41.765000000000001</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41.129600000000003</v>
       </c>
+      <c r="J11" s="18"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
       <c r="C12" s="8">
         <v>4</v>
       </c>
@@ -898,12 +8684,21 @@
         <v>42.658999999999999</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41.615400000000001</v>
       </c>
+      <c r="J12" s="18"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="12"/>
+    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16"/>
       <c r="C13" s="9">
         <v>5</v>
       </c>
@@ -923,39 +8718,60 @@
         <v>39.668999999999997</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41.356399999999994</v>
       </c>
+      <c r="J13" s="19"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>1</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <v>24.678000000000001</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>25.385000000000002</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <v>24.675000000000001</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="11">
         <v>24.465</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="11">
         <v>26.138000000000002</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <f>AVERAGE(D14:H14)</f>
         <v>25.068200000000001</v>
       </c>
+      <c r="J14" s="17">
+        <f t="shared" ref="J14" si="4">AVERAGE(I14:I18)</f>
+        <v>25.249680000000001</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
       <c r="C15" s="8">
         <v>2</v>
       </c>
@@ -975,12 +8791,21 @@
         <v>24.721</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" ref="I15:I18" si="2">AVERAGE(D15:H15)</f>
+        <f t="shared" ref="I15:I18" si="5">AVERAGE(D15:H15)</f>
         <v>25.035400000000003</v>
       </c>
+      <c r="J15" s="18"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
       <c r="C16" s="8">
         <v>3</v>
       </c>
@@ -1000,12 +8825,21 @@
         <v>25.207999999999998</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.298400000000001</v>
       </c>
+      <c r="J16" s="18"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
       <c r="C17" s="8">
         <v>4</v>
       </c>
@@ -1025,12 +8859,21 @@
         <v>25.632999999999999</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.2042</v>
       </c>
+      <c r="J17" s="18"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="12"/>
+    <row r="18" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="16"/>
       <c r="C18" s="9">
         <v>5</v>
       </c>
@@ -1050,39 +8893,60 @@
         <v>25.712</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25.642199999999995</v>
       </c>
+      <c r="J18" s="19"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <v>1</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="11">
         <v>25.922000000000001</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>26.446000000000002</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="11">
         <v>26.513000000000002</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="11">
         <v>26.094000000000001</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="11">
         <v>25.841999999999999</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="12">
         <f>AVERAGE(D19:H19)</f>
         <v>26.163400000000003</v>
       </c>
+      <c r="J19" s="17">
+        <f t="shared" ref="J19" si="6">AVERAGE(I19:I23)</f>
+        <v>26.094240000000003</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="20"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
       <c r="C20" s="8">
         <v>2</v>
       </c>
@@ -1102,12 +8966,21 @@
         <v>26.670999999999999</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" ref="I20:I23" si="3">AVERAGE(D20:H20)</f>
+        <f t="shared" ref="I20:I23" si="7">AVERAGE(D20:H20)</f>
         <v>26.396800000000002</v>
       </c>
+      <c r="J20" s="18"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
       <c r="C21" s="8">
         <v>3</v>
       </c>
@@ -1127,12 +9000,21 @@
         <v>25.501999999999999</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.964600000000001</v>
       </c>
+      <c r="J21" s="18"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
       <c r="C22" s="8">
         <v>4</v>
       </c>
@@ -1152,12 +9034,21 @@
         <v>26.651</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26.312800000000003</v>
       </c>
+      <c r="J22" s="18"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="12"/>
+    <row r="23" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16"/>
       <c r="C23" s="9">
         <v>5</v>
       </c>
@@ -1177,18 +9068,121 @@
         <v>26.221</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.633600000000001</v>
       </c>
+      <c r="J23" s="19"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B23"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J19:J23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BC1B6B-276A-413A-BB02-A003F09A95FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6133E135-ABD5-43E7-B568-F418A2534A84}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C489EAFB-0314-45D4-BDF3-0AA02BC1CF2D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41939DFB-C4A6-4C99-B43D-EE9C339A6AE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AB3BA6-59A5-4B24-9813-3A658DF5B3BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F473755B-3AA7-4A6A-A315-9FA5DD69569B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>